--- a/events/Horashim_2022/StartList.xlsx
+++ b/events/Horashim_2022/StartList.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>STNO</t>
   </si>
@@ -16,52 +16,106 @@
     <t>NAME</t>
   </si>
   <si>
+    <t>מורג בועז</t>
+  </si>
+  <si>
+    <t>זיינפלד עופר</t>
+  </si>
+  <si>
+    <t>מינסקי מנחם</t>
+  </si>
+  <si>
+    <t>סופר עופר</t>
+  </si>
+  <si>
     <t>הימן יונה</t>
   </si>
   <si>
+    <t>דודלזק צביקה</t>
+  </si>
+  <si>
+    <t>וולשטיין דן</t>
+  </si>
+  <si>
+    <t>אשל סהר</t>
+  </si>
+  <si>
+    <t>אשל חגי</t>
+  </si>
+  <si>
+    <t>פלוטקין רון</t>
+  </si>
+  <si>
+    <t>הימן רפי</t>
+  </si>
+  <si>
+    <t>לדרר חגי</t>
+  </si>
+  <si>
+    <t>רימרמן-שדמה נטע</t>
+  </si>
+  <si>
+    <t>ליפוביץ אלכס</t>
+  </si>
+  <si>
+    <t>גולדנר יקיר</t>
+  </si>
+  <si>
+    <t>מלץ אבי</t>
+  </si>
+  <si>
+    <t>אלוש רות</t>
+  </si>
+  <si>
+    <t>פרידמן אלכס</t>
+  </si>
+  <si>
+    <t>מאירי נעם</t>
+  </si>
+  <si>
     <t>צ'רני הלל</t>
   </si>
   <si>
-    <t>מאירי נעם</t>
-  </si>
-  <si>
-    <t>פרידמן אלכס</t>
-  </si>
-  <si>
-    <t>אלוש רות</t>
-  </si>
-  <si>
-    <t>מלץ אבי</t>
-  </si>
-  <si>
-    <t>גולדנר יקיר</t>
-  </si>
-  <si>
-    <t>ליפוביץ אלכס</t>
-  </si>
-  <si>
-    <t>רימרמן-שדמה נטע</t>
-  </si>
-  <si>
-    <t>מורג בועז</t>
-  </si>
-  <si>
-    <t>הימן רפי</t>
-  </si>
-  <si>
     <t>צפורי דרור</t>
   </si>
   <si>
-    <t>אשל חגי</t>
-  </si>
-  <si>
-    <t>אשל סהר</t>
-  </si>
-  <si>
-    <t>פלוטקין רון</t>
-  </si>
-  <si>
-    <t>לדרר חגי</t>
+    <t>פילו בועז</t>
+  </si>
+  <si>
+    <t>כספי שי</t>
+  </si>
+  <si>
+    <t>טל אביב</t>
+  </si>
+  <si>
+    <t>שפר שחר</t>
+  </si>
+  <si>
+    <t>מסינג ענת סיפורים</t>
+  </si>
+  <si>
+    <t>דביר יונתן</t>
+  </si>
+  <si>
+    <t>איגנטוב אידה</t>
+  </si>
+  <si>
+    <t>איגנטוב אנה</t>
+  </si>
+  <si>
+    <t>איגנטוב אנדרי</t>
+  </si>
+  <si>
+    <t>גולדהכט גיורא</t>
+  </si>
+  <si>
+    <t>יודפת עופר</t>
+  </si>
+  <si>
+    <t>ליבר דן</t>
+  </si>
+  <si>
+    <t>משלי יובל</t>
   </si>
   <si>
     <t>משלי ליסה</t>
@@ -79,52 +133,37 @@
     <t>אורי אופיר</t>
   </si>
   <si>
-    <t>וולשטיין דן</t>
+    <t>פילו שמואליק</t>
   </si>
   <si>
     <t>שפירא אורן</t>
   </si>
   <si>
-    <t>דודלזק צביקה</t>
-  </si>
-  <si>
-    <t>ליבר דן</t>
-  </si>
-  <si>
-    <t>גולדהכט גיורא</t>
-  </si>
-  <si>
-    <t>זיינפלד עופר</t>
-  </si>
-  <si>
-    <t>מינסקי מנחם</t>
-  </si>
-  <si>
-    <t>סופר עופר</t>
-  </si>
-  <si>
-    <t>משלי יובל</t>
-  </si>
-  <si>
-    <t>פילו שמואליק</t>
+    <t>חוחלובה טטיאנה</t>
+  </si>
+  <si>
+    <t>נתיב רות</t>
   </si>
   <si>
     <t>CLUB</t>
   </si>
   <si>
+    <t>עמק חפר</t>
+  </si>
+  <si>
+    <t>חבל מודיעין</t>
+  </si>
+  <si>
     <t>השרון</t>
   </si>
   <si>
-    <t>חבל מודיעין</t>
+    <t>לב השרון-מנשה</t>
   </si>
   <si>
     <t>אסא תל אביב</t>
   </si>
   <si>
-    <t>עמק חפר</t>
-  </si>
-  <si>
-    <t>לב השרון-מנשה</t>
+    <t>ראשון לציון</t>
   </si>
   <si>
     <t>CLASS NAME</t>
@@ -133,12 +172,12 @@
     <t>קצר</t>
   </si>
   <si>
+    <t>בינוני</t>
+  </si>
+  <si>
     <t>ארוך</t>
   </si>
   <si>
-    <t>בינוני</t>
-  </si>
-  <si>
     <t>קצרצר</t>
   </si>
   <si>
@@ -157,12 +196,12 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>הערות</t>
   </si>
   <si>
@@ -184,46 +223,91 @@
     <t>נייד</t>
   </si>
   <si>
+    <t>050-4270094</t>
+  </si>
+  <si>
+    <t>050-8800048</t>
+  </si>
+  <si>
+    <t>050-8802248</t>
+  </si>
+  <si>
+    <t>054-3291072</t>
+  </si>
+  <si>
     <t>054-5745695</t>
   </si>
   <si>
+    <t>050-5820593</t>
+  </si>
+  <si>
+    <t>054-3080103</t>
+  </si>
+  <si>
+    <t>054-4683685</t>
+  </si>
+  <si>
+    <t>054-4624616</t>
+  </si>
+  <si>
+    <t>054-7205695</t>
+  </si>
+  <si>
+    <t>058-5657981</t>
+  </si>
+  <si>
+    <t>052-2512440</t>
+  </si>
+  <si>
+    <t>054-5986439</t>
+  </si>
+  <si>
+    <t>054-4225931</t>
+  </si>
+  <si>
+    <t>050-5525774</t>
+  </si>
+  <si>
+    <t>054-4460223</t>
+  </si>
+  <si>
+    <t>050-6220411</t>
+  </si>
+  <si>
     <t>052-3614791</t>
   </si>
   <si>
-    <t>050-6220411</t>
-  </si>
-  <si>
-    <t>054-4460223</t>
-  </si>
-  <si>
-    <t>050-5525774</t>
-  </si>
-  <si>
-    <t>054-4225931</t>
-  </si>
-  <si>
-    <t>054-5986439</t>
-  </si>
-  <si>
-    <t>052-2512440</t>
-  </si>
-  <si>
-    <t>050-4270094</t>
-  </si>
-  <si>
-    <t>054-7205695</t>
-  </si>
-  <si>
     <t>050-4813400</t>
   </si>
   <si>
-    <t>054-4683685</t>
-  </si>
-  <si>
-    <t>054-4624616</t>
-  </si>
-  <si>
-    <t>058-5657981</t>
+    <t>054-7236295</t>
+  </si>
+  <si>
+    <t>054-7864656</t>
+  </si>
+  <si>
+    <t>058-4741993</t>
+  </si>
+  <si>
+    <t>052-6867272</t>
+  </si>
+  <si>
+    <t>054-2344862</t>
+  </si>
+  <si>
+    <t>054-6998499</t>
+  </si>
+  <si>
+    <t>052-5811811</t>
+  </si>
+  <si>
+    <t>052-3351212</t>
+  </si>
+  <si>
+    <t>054-4481312</t>
+  </si>
+  <si>
+    <t>054-4468818</t>
   </si>
   <si>
     <t>054-5390821</t>
@@ -235,31 +319,13 @@
     <t>054-3250080</t>
   </si>
   <si>
-    <t>054-3080103</t>
-  </si>
-  <si>
     <t>054-6697140</t>
   </si>
   <si>
-    <t>050-5820593</t>
-  </si>
-  <si>
-    <t>054-4481312</t>
-  </si>
-  <si>
-    <t>052-5811811</t>
-  </si>
-  <si>
-    <t>050-8800048</t>
-  </si>
-  <si>
-    <t>050-8802248</t>
-  </si>
-  <si>
-    <t>054-3291072</t>
-  </si>
-  <si>
-    <t>054-4468818</t>
+    <t>054-9949571</t>
+  </si>
+  <si>
+    <t>054-4683928</t>
   </si>
 </sst>
 </file>
@@ -422,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true"/>
   </sheetViews>
@@ -436,70 +502,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3279</v>
+        <v>1465</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="n">
-        <v>2071090</v>
+        <v>2071190</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="b">
@@ -507,38 +573,40 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2"/>
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2029</v>
+        <v>6283</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="n">
-        <v>2071030</v>
+        <v>2071517</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="b">
@@ -546,38 +614,38 @@
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3734</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="n">
-        <v>2071186</v>
+        <v>2071005</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="b">
@@ -585,38 +653,38 @@
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2599</v>
+        <v>7207</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="n">
-        <v>230740</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="b">
@@ -624,38 +692,40 @@
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>25</v>
-      </c>
-      <c r="N5"/>
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4165</v>
+        <v>3279</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="n">
-        <v>2071109</v>
+        <v>2071090</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="b">
@@ -663,38 +733,38 @@
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1700</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="n">
-        <v>2107120</v>
+        <v>2071257</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="b">
@@ -702,38 +772,38 @@
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N7"/>
-      <c r="O7" t="n">
-        <v>547906067</v>
+      <c r="O7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2959</v>
+        <v>3453</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="n">
-        <v>7220184</v>
+        <v>2071040</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="b">
@@ -741,40 +811,38 @@
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3084</v>
+        <v>6685</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="n">
-        <v>1321322</v>
+        <v>8250465</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="b">
@@ -785,37 +853,34 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7152</v>
+        <v>4203</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="n">
-        <v>2145090</v>
+        <v>1008072</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="b">
@@ -823,40 +888,38 @@
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10"/>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1465</v>
+        <v>4120</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="n">
-        <v>2071190</v>
+        <v>2300229</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="b">
@@ -864,13 +927,11 @@
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N11"/>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -881,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.395833333333333</v>
@@ -897,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="b">
@@ -909,34 +970,34 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1751</v>
+        <v>822</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="n">
-        <v>8222222</v>
+        <v>2071070</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="b">
@@ -948,34 +1009,34 @@
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4203</v>
+        <v>7152</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="n">
-        <v>1008072</v>
+        <v>2145090</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="b">
@@ -983,38 +1044,40 @@
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14"/>
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6685</v>
+        <v>3084</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="n">
-        <v>8250465</v>
+        <v>1321322</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="b">
@@ -1025,34 +1088,37 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4120</v>
+        <v>2959</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="n">
-        <v>2300229</v>
+        <v>7220184</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="b">
@@ -1060,38 +1126,40 @@
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>25</v>
-      </c>
-      <c r="N16"/>
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>822</v>
+        <v>1700</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="n">
-        <v>2071070</v>
+        <v>2107120</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="b">
@@ -1099,38 +1167,38 @@
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N17"/>
-      <c r="O17" t="s">
-        <v>71</v>
+      <c r="O17" t="n">
+        <v>547906067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>274</v>
+        <v>4165</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="n">
-        <v>2071083</v>
+        <v>2071109</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="b">
@@ -1142,34 +1210,34 @@
       </c>
       <c r="N18"/>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7138</v>
+        <v>2599</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="n">
-        <v>7150479</v>
+        <v>230740</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="b">
@@ -1177,153 +1245,153 @@
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>214954968</v>
+        <v>3734</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2071186</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>523863228</v>
+      <c r="O20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6885</v>
+        <v>2029</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2071030</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29614112</v>
+        <v>1751</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8222222</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N22"/>
-      <c r="O22" t="n">
-        <v>523863228</v>
+      <c r="O22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3453</v>
+        <v>27931617</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
+      <c r="C23"/>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="n">
-        <v>2071040</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="b">
@@ -1331,38 +1399,38 @@
       </c>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N23"/>
-      <c r="O23" t="s">
-        <v>75</v>
+      <c r="O23" t="n">
+        <v>543348646</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4377</v>
+        <v>883</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="n">
-        <v>2068536</v>
+        <v>2083331</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="b">
@@ -1370,38 +1438,38 @@
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>5178</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="n">
-        <v>2071257</v>
+        <v>2071131</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="b">
@@ -1413,34 +1481,34 @@
       </c>
       <c r="N25"/>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4828</v>
+        <v>5723</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="n">
-        <v>2800900</v>
+        <v>1202015</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="b">
@@ -1448,38 +1516,38 @@
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3613</v>
+        <v>5179</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="n">
-        <v>9471203</v>
+        <v>2071119</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="b">
@@ -1487,40 +1555,38 @@
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>56</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N27"/>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6283</v>
+        <v>2011</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="n">
-        <v>2071517</v>
+        <v>2071154</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="b">
@@ -1531,35 +1597,35 @@
         <v>25</v>
       </c>
       <c r="N28"/>
-      <c r="O28" t="s">
-        <v>80</v>
+      <c r="O28" t="n">
+        <v>544710406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>603</v>
+        <v>4008</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="n">
-        <v>2071005</v>
+        <v>2071003</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="b">
@@ -1567,38 +1633,38 @@
       </c>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7207</v>
+        <v>4007</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2071058</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="b">
@@ -1606,40 +1672,38 @@
       </c>
       <c r="L30"/>
       <c r="M30" t="n">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="n">
+        <v>542206373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>273</v>
+        <v>4006</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="n">
-        <v>2071039</v>
+        <v>2071046</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="b">
@@ -1651,32 +1715,34 @@
       </c>
       <c r="N31"/>
       <c r="O31" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>57967960</v>
+        <v>3613</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9471203</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="b">
@@ -1684,11 +1750,477 @@
       </c>
       <c r="L32"/>
       <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" t="n">
+        <v>2071017</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="n">
+        <v>25</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4828</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" t="n">
+        <v>2800900</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="n">
+        <v>2071039</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="n">
+        <v>25</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>274</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" t="n">
+        <v>2071083</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>25</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" t="n">
+        <v>7150479</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>214954968</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="n">
+        <v>50</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38" t="n">
+        <v>523863228</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6885</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="n">
+        <v>35</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29614112</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="N32"/>
-      <c r="O32" t="n">
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="n">
+        <v>50</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40" t="n">
+        <v>523863228</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57967960</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41" t="n">
         <v>584731700</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4377</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" t="n">
+        <v>2068536</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="n">
+        <v>25</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5862</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" t="n">
+        <v>2071601</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43" t="n">
+        <v>25</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4891</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="n">
+        <v>2071179</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44" t="n">
+        <v>25</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/events/Horashim_2022/StartList.xlsx
+++ b/events/Horashim_2022/StartList.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>STNO</t>
   </si>
@@ -16,169 +16,667 @@
     <t>NAME</t>
   </si>
   <si>
+    <t>רודניקי יעל</t>
+  </si>
+  <si>
+    <t>שכטר דביר</t>
+  </si>
+  <si>
+    <t>מאירקוביץ סופיה</t>
+  </si>
+  <si>
+    <t>זורע אלון</t>
+  </si>
+  <si>
+    <t>גבע בתשבע</t>
+  </si>
+  <si>
+    <t>קלדרון זיו</t>
+  </si>
+  <si>
+    <t>חדד עמית</t>
+  </si>
+  <si>
+    <t>מצגר קובי</t>
+  </si>
+  <si>
+    <t>בוכבינדר מודי</t>
+  </si>
+  <si>
+    <t>רפאלי דני</t>
+  </si>
+  <si>
+    <t>גרינברג מיקי</t>
+  </si>
+  <si>
+    <t>רוטשטיין חגית</t>
+  </si>
+  <si>
+    <t>רז אייל</t>
+  </si>
+  <si>
+    <t>קוזנצוב דמיטרי</t>
+  </si>
+  <si>
+    <t>קלקשטיין יובל</t>
+  </si>
+  <si>
+    <t>לדרמן  בן</t>
+  </si>
+  <si>
+    <t>כספי יעל</t>
+  </si>
+  <si>
+    <t>ויינר תומר</t>
+  </si>
+  <si>
+    <t>יפה מור</t>
+  </si>
+  <si>
+    <t>שפר שי</t>
+  </si>
+  <si>
+    <t>פדוסין אנטון</t>
+  </si>
+  <si>
+    <t>ויסמן עדי</t>
+  </si>
+  <si>
+    <t>בן-שטרית מאיר</t>
+  </si>
+  <si>
+    <t>סלע נתן</t>
+  </si>
+  <si>
+    <t>מלכא מולי</t>
+  </si>
+  <si>
+    <t>דגן אוריין</t>
+  </si>
+  <si>
+    <t>תלם איתיאל</t>
+  </si>
+  <si>
+    <t>קלמר נדב</t>
+  </si>
+  <si>
+    <t>ליאור איל</t>
+  </si>
+  <si>
+    <t>מלכה טל</t>
+  </si>
+  <si>
+    <t>גוברדובסקי ולדיסלב</t>
+  </si>
+  <si>
+    <t>זילברשטיין נבות</t>
+  </si>
+  <si>
+    <t>פיינשטיין רועי</t>
+  </si>
+  <si>
+    <t>גרינברג גיל</t>
+  </si>
+  <si>
+    <t>גרינברג אניה</t>
+  </si>
+  <si>
+    <t>כצמן אדי</t>
+  </si>
+  <si>
+    <t>מאירקוביץ יבגני</t>
+  </si>
+  <si>
+    <t>צוק אילן</t>
+  </si>
+  <si>
+    <t>גוטמן רעי</t>
+  </si>
+  <si>
+    <t>גבעולי רון</t>
+  </si>
+  <si>
+    <t>נוסבוים יצחק</t>
+  </si>
+  <si>
+    <t>נוסבוים שרון</t>
+  </si>
+  <si>
+    <t>פנפיל אבי</t>
+  </si>
+  <si>
+    <t>רביד דליה</t>
+  </si>
+  <si>
+    <t>רביד משה</t>
+  </si>
+  <si>
+    <t>ליאור מתן</t>
+  </si>
+  <si>
+    <t>פורת רונית</t>
+  </si>
+  <si>
+    <t>בן-שלום דוד</t>
+  </si>
+  <si>
+    <t>נחושתן ירון</t>
+  </si>
+  <si>
+    <t>מדר ערן</t>
+  </si>
+  <si>
+    <t>הימן רפי</t>
+  </si>
+  <si>
+    <t>ליבר דן</t>
+  </si>
+  <si>
+    <t>גולדהכט גיורא</t>
+  </si>
+  <si>
+    <t>כהנא אלון</t>
+  </si>
+  <si>
+    <t>זיינפלד עופר</t>
+  </si>
+  <si>
+    <t>מינסקי מנחם</t>
+  </si>
+  <si>
+    <t>סופר עופר</t>
+  </si>
+  <si>
+    <t>הימן יונה</t>
+  </si>
+  <si>
+    <t>דודלזק צביקה</t>
+  </si>
+  <si>
+    <t>וולשטיין דן</t>
+  </si>
+  <si>
+    <t>אשל סהר</t>
+  </si>
+  <si>
+    <t>זידנוב דניס</t>
+  </si>
+  <si>
+    <t>צפורי דרור</t>
+  </si>
+  <si>
+    <t>אורי אופיר</t>
+  </si>
+  <si>
     <t>מורג בועז</t>
   </si>
   <si>
-    <t>זיינפלד עופר</t>
-  </si>
-  <si>
-    <t>מינסקי מנחם</t>
-  </si>
-  <si>
-    <t>סופר עופר</t>
-  </si>
-  <si>
-    <t>הימן יונה</t>
-  </si>
-  <si>
-    <t>דודלזק צביקה</t>
-  </si>
-  <si>
-    <t>וולשטיין דן</t>
-  </si>
-  <si>
-    <t>אשל סהר</t>
+    <t>רימרמן-שדמה נטע</t>
+  </si>
+  <si>
+    <t>ליפוביץ אלכס</t>
+  </si>
+  <si>
+    <t>גולדנר יקיר</t>
+  </si>
+  <si>
+    <t>פורת ספי</t>
+  </si>
+  <si>
+    <t>מלץ אבי</t>
+  </si>
+  <si>
+    <t>אלוש רות</t>
+  </si>
+  <si>
+    <t>פרידמן אלכס</t>
+  </si>
+  <si>
+    <t>מאירי נעם</t>
+  </si>
+  <si>
+    <t>צ'רני הלל</t>
   </si>
   <si>
     <t>אשל חגי</t>
   </si>
   <si>
-    <t>פלוטקין רון</t>
-  </si>
-  <si>
-    <t>הימן רפי</t>
+    <t>איגנטוב אנה</t>
+  </si>
+  <si>
+    <t>צפורי אבנר</t>
+  </si>
+  <si>
+    <t>גול אפק</t>
+  </si>
+  <si>
+    <t>הרשמן שחר</t>
+  </si>
+  <si>
+    <t>רן רות</t>
+  </si>
+  <si>
+    <t>רן שמאי</t>
+  </si>
+  <si>
+    <t>חוחלובה טטיאנה</t>
+  </si>
+  <si>
+    <t>כספי שי</t>
+  </si>
+  <si>
+    <t>טל אביב</t>
+  </si>
+  <si>
+    <t>שפר שחר</t>
+  </si>
+  <si>
+    <t>מסינג ענת סיפורים</t>
   </si>
   <si>
     <t>לדרר חגי</t>
   </si>
   <si>
-    <t>רימרמן-שדמה נטע</t>
-  </si>
-  <si>
-    <t>ליפוביץ אלכס</t>
-  </si>
-  <si>
-    <t>גולדנר יקיר</t>
-  </si>
-  <si>
-    <t>מלץ אבי</t>
-  </si>
-  <si>
-    <t>אלוש רות</t>
-  </si>
-  <si>
-    <t>פרידמן אלכס</t>
-  </si>
-  <si>
-    <t>מאירי נעם</t>
-  </si>
-  <si>
-    <t>צ'רני הלל</t>
-  </si>
-  <si>
-    <t>צפורי דרור</t>
+    <t>איגנטוב אידה</t>
+  </si>
+  <si>
+    <t>פילו שמואליק</t>
+  </si>
+  <si>
+    <t>איגנטוב אנדרי</t>
+  </si>
+  <si>
+    <t>נתיב רות</t>
+  </si>
+  <si>
+    <t>יודפת עופר</t>
   </si>
   <si>
     <t>פילו בועז</t>
   </si>
   <si>
-    <t>כספי שי</t>
-  </si>
-  <si>
-    <t>טל אביב</t>
-  </si>
-  <si>
-    <t>שפר שחר</t>
-  </si>
-  <si>
-    <t>מסינג ענת סיפורים</t>
+    <t>בלגלי רן</t>
+  </si>
+  <si>
+    <t>משלי יובל</t>
+  </si>
+  <si>
+    <t>משלי ליסה</t>
+  </si>
+  <si>
+    <t>גרדי עינת</t>
+  </si>
+  <si>
+    <t>אורי אילון</t>
+  </si>
+  <si>
+    <t>גורקה אורנה</t>
+  </si>
+  <si>
+    <t>ויסמן שאול</t>
   </si>
   <si>
     <t>דביר יונתן</t>
   </si>
   <si>
-    <t>איגנטוב אידה</t>
-  </si>
-  <si>
-    <t>איגנטוב אנה</t>
-  </si>
-  <si>
-    <t>איגנטוב אנדרי</t>
-  </si>
-  <si>
-    <t>גולדהכט גיורא</t>
-  </si>
-  <si>
-    <t>יודפת עופר</t>
-  </si>
-  <si>
-    <t>ליבר דן</t>
-  </si>
-  <si>
-    <t>משלי יובל</t>
-  </si>
-  <si>
-    <t>משלי ליסה</t>
-  </si>
-  <si>
-    <t>גרדי עינת</t>
-  </si>
-  <si>
-    <t>אורי אילון</t>
-  </si>
-  <si>
-    <t>גורקה אורנה</t>
-  </si>
-  <si>
-    <t>אורי אופיר</t>
-  </si>
-  <si>
-    <t>פילו שמואליק</t>
-  </si>
-  <si>
-    <t>שפירא אורן</t>
-  </si>
-  <si>
-    <t>חוחלובה טטיאנה</t>
-  </si>
-  <si>
-    <t>נתיב רות</t>
+    <t>אופיר יובל</t>
+  </si>
+  <si>
+    <t>קלמר  עומר</t>
+  </si>
+  <si>
+    <t>קלקשטיין נדב</t>
+  </si>
+  <si>
+    <t>שביב רן</t>
+  </si>
+  <si>
+    <t>בר קוסטיה</t>
+  </si>
+  <si>
+    <t>בן שטרית נדב</t>
+  </si>
+  <si>
+    <t>בר-גד יואב</t>
+  </si>
+  <si>
+    <t>גרדי דן</t>
+  </si>
+  <si>
+    <t>ריסי גל</t>
+  </si>
+  <si>
+    <t>נוסבוים איתם</t>
+  </si>
+  <si>
+    <t>לדרר שלו</t>
+  </si>
+  <si>
+    <t>פוספלד עודד</t>
+  </si>
+  <si>
+    <t>יקיר ניב</t>
+  </si>
+  <si>
+    <t>רימברג כפיר</t>
+  </si>
+  <si>
+    <t>גלזר אילן</t>
+  </si>
+  <si>
+    <t>רז שלמה</t>
+  </si>
+  <si>
+    <t>גור אלי</t>
+  </si>
+  <si>
+    <t>בר-אהרוני הלל</t>
+  </si>
+  <si>
+    <t>קורנברג ישראל</t>
+  </si>
+  <si>
+    <t>עפרון אלדד</t>
+  </si>
+  <si>
+    <t>עפרון איתן</t>
+  </si>
+  <si>
+    <t>גרידינגר יותם</t>
+  </si>
+  <si>
+    <t>שינדלר לירדן</t>
+  </si>
+  <si>
+    <t>שינדלר-ברגמן יהודית</t>
+  </si>
+  <si>
+    <t>שלו משה</t>
+  </si>
+  <si>
+    <t>פבישביץ אלינור</t>
+  </si>
+  <si>
+    <t>רמזנוב אלכסנדר</t>
+  </si>
+  <si>
+    <t>מאירקוביץ מארינה</t>
+  </si>
+  <si>
+    <t>דוידוביץ אלון</t>
+  </si>
+  <si>
+    <t>דוידוביץ איתי</t>
+  </si>
+  <si>
+    <t>שחורי יונתן</t>
+  </si>
+  <si>
+    <t>ברון רומן</t>
+  </si>
+  <si>
+    <t>שחורי און</t>
+  </si>
+  <si>
+    <t>ברג יובל</t>
+  </si>
+  <si>
+    <t>שוב רונן</t>
+  </si>
+  <si>
+    <t>ניב נדב</t>
+  </si>
+  <si>
+    <t>קלקשטיין בר</t>
+  </si>
+  <si>
+    <t>שפי יוחאי</t>
+  </si>
+  <si>
+    <t>שינדלר ליל</t>
+  </si>
+  <si>
+    <t>לוז רועי</t>
+  </si>
+  <si>
+    <t>גרנט עופר</t>
+  </si>
+  <si>
+    <t>עמיעז איתן</t>
+  </si>
+  <si>
+    <t>אלוש תמיר</t>
+  </si>
+  <si>
+    <t>שלו יואב</t>
+  </si>
+  <si>
+    <t>אפרתי מתן</t>
+  </si>
+  <si>
+    <t>פרידמן נדב</t>
+  </si>
+  <si>
+    <t>ליפמן רמי</t>
+  </si>
+  <si>
+    <t>ליפמן יעל</t>
+  </si>
+  <si>
+    <t>בר אבי</t>
+  </si>
+  <si>
+    <t>ובמן איה</t>
+  </si>
+  <si>
+    <t>סולאג' כליל</t>
+  </si>
+  <si>
+    <t>גוטמן יהודה</t>
+  </si>
+  <si>
+    <t>ריינהרץ יניב</t>
+  </si>
+  <si>
+    <t>שלו ניצן</t>
+  </si>
+  <si>
+    <t>צינדר אריאל</t>
+  </si>
+  <si>
+    <t>ירדן גלעד</t>
+  </si>
+  <si>
+    <t>ריינהרץ דרור</t>
+  </si>
+  <si>
+    <t>ריינהרץ אורית</t>
+  </si>
+  <si>
+    <t>אביטל עפר</t>
+  </si>
+  <si>
+    <t>שמואלי אשר</t>
+  </si>
+  <si>
+    <t>בן-זהר ניצן</t>
+  </si>
+  <si>
+    <t>שינדלר זיו</t>
+  </si>
+  <si>
+    <t>נסראלדין נגיב</t>
+  </si>
+  <si>
+    <t>רביד נועם</t>
+  </si>
+  <si>
+    <t>מורגוליס יאן</t>
+  </si>
+  <si>
+    <t>שמואלי נורית</t>
+  </si>
+  <si>
+    <t>טייטר מקסים</t>
+  </si>
+  <si>
+    <t>טייטר  ארתור</t>
+  </si>
+  <si>
+    <t>עפרון מתן</t>
+  </si>
+  <si>
+    <t>גוטמן עדי</t>
+  </si>
+  <si>
+    <t>קינר סיון</t>
+  </si>
+  <si>
+    <t>קינר דורון</t>
+  </si>
+  <si>
+    <t>נטיף צפי</t>
+  </si>
+  <si>
+    <t>ארד שחר-3446</t>
+  </si>
+  <si>
+    <t>הלוי איתן</t>
+  </si>
+  <si>
+    <t>הס רענן</t>
+  </si>
+  <si>
+    <t>אילגץ׳ גאורגי</t>
+  </si>
+  <si>
+    <t>אשר שמואל</t>
+  </si>
+  <si>
+    <t>קלמנוביץ מי-טל</t>
+  </si>
+  <si>
+    <t>ורבין עידן</t>
+  </si>
+  <si>
+    <t>ורבין עודד</t>
+  </si>
+  <si>
+    <t>כספרי אמיר</t>
+  </si>
+  <si>
+    <t>גולדשטיין עומר</t>
+  </si>
+  <si>
+    <t>שחר ליעד</t>
+  </si>
+  <si>
+    <t>גרין וורן</t>
+  </si>
+  <si>
+    <t>הלחמי אבנר</t>
+  </si>
+  <si>
+    <t>לדרר איתן</t>
+  </si>
+  <si>
+    <t>יוגב עדי</t>
+  </si>
+  <si>
+    <t>טייט אבה</t>
+  </si>
+  <si>
+    <t>חובב שימי</t>
+  </si>
+  <si>
+    <t>פדוסין ולדימיר</t>
+  </si>
+  <si>
+    <t>רביד יעל</t>
+  </si>
+  <si>
+    <t>פרישפלס ג'ים</t>
+  </si>
+  <si>
+    <t>שחורי שוש</t>
+  </si>
+  <si>
+    <t>שחורי סנדרה</t>
+  </si>
+  <si>
+    <t>שחורי איתי</t>
+  </si>
+  <si>
+    <t>שפי איילה</t>
+  </si>
+  <si>
+    <t>שחורי אלון</t>
+  </si>
+  <si>
+    <t>רביד נעמי</t>
+  </si>
+  <si>
+    <t>שינדלר לידי</t>
+  </si>
+  <si>
+    <t>טל רוני</t>
   </si>
   <si>
     <t>CLUB</t>
   </si>
   <si>
+    <t>לב השרון-מנשה</t>
+  </si>
+  <si>
+    <t>חבל מודיעין</t>
+  </si>
+  <si>
+    <t>טכניון כרמל</t>
+  </si>
+  <si>
+    <t>אסא תל אביב</t>
+  </si>
+  <si>
+    <t>השרון</t>
+  </si>
+  <si>
+    <t>גליל</t>
+  </si>
+  <si>
+    <t>יזרעאל</t>
+  </si>
+  <si>
+    <t>אסא טכניון חיפה</t>
+  </si>
+  <si>
+    <t>אסא ירושלים</t>
+  </si>
+  <si>
     <t>עמק חפר</t>
   </si>
   <si>
-    <t>חבל מודיעין</t>
-  </si>
-  <si>
-    <t>השרון</t>
-  </si>
-  <si>
-    <t>לב השרון-מנשה</t>
-  </si>
-  <si>
-    <t>אסא תל אביב</t>
-  </si>
-  <si>
     <t>ראשון לציון</t>
   </si>
   <si>
+    <t>האיגוד</t>
+  </si>
+  <si>
     <t>CLASS NAME</t>
   </si>
   <si>
+    <t>קצרצר</t>
+  </si>
+  <si>
+    <t>ארוך</t>
+  </si>
+  <si>
     <t>קצר</t>
   </si>
   <si>
     <t>בינוני</t>
   </si>
   <si>
-    <t>ארוך</t>
-  </si>
-  <si>
-    <t>קצרצר</t>
+    <t>עממי</t>
   </si>
   <si>
     <t>זמן זינוק מבוקש</t>
@@ -196,15 +694,18 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>הערות</t>
   </si>
   <si>
+    <t>צריכה צ'יפ</t>
+  </si>
+  <si>
     <t>השכרת כרטיס</t>
   </si>
   <si>
@@ -220,93 +721,204 @@
     <t>EHHO15</t>
   </si>
   <si>
+    <t>EZHAYAL</t>
+  </si>
+  <si>
     <t>נייד</t>
   </si>
   <si>
+    <t>050-6519500</t>
+  </si>
+  <si>
+    <t>054-5670260</t>
+  </si>
+  <si>
+    <t>054-4204610</t>
+  </si>
+  <si>
+    <t>054-6839778</t>
+  </si>
+  <si>
+    <t>054-4878148</t>
+  </si>
+  <si>
+    <t>054-2183321</t>
+  </si>
+  <si>
+    <t>052-3134757</t>
+  </si>
+  <si>
+    <t>054-5963462</t>
+  </si>
+  <si>
+    <t>054-6673735</t>
+  </si>
+  <si>
+    <t>051-2410848</t>
+  </si>
+  <si>
+    <t>052-8468384</t>
+  </si>
+  <si>
+    <t>054-4878158</t>
+  </si>
+  <si>
+    <t>053-8470305</t>
+  </si>
+  <si>
+    <t>052-2619478</t>
+  </si>
+  <si>
+    <t>054-4974305</t>
+  </si>
+  <si>
+    <t>050-6905880</t>
+  </si>
+  <si>
+    <t>052-5683240</t>
+  </si>
+  <si>
+    <t>058-4449170</t>
+  </si>
+  <si>
+    <t>050-7533501</t>
+  </si>
+  <si>
+    <t>052-4622904</t>
+  </si>
+  <si>
+    <t>054-5749800</t>
+  </si>
+  <si>
+    <t>054-6822642</t>
+  </si>
+  <si>
+    <t>054-7372698</t>
+  </si>
+  <si>
+    <t>054-3299076</t>
+  </si>
+  <si>
+    <t>054-9884070</t>
+  </si>
+  <si>
+    <t>054-4903747</t>
+  </si>
+  <si>
+    <t>052-3296329</t>
+  </si>
+  <si>
+    <t>052-2737774</t>
+  </si>
+  <si>
+    <t>054-6722529</t>
+  </si>
+  <si>
+    <t>054-7205695</t>
+  </si>
+  <si>
+    <t>054-4481312</t>
+  </si>
+  <si>
+    <t>052-5811811</t>
+  </si>
+  <si>
+    <t>000-0000000</t>
+  </si>
+  <si>
+    <t>050-8800048</t>
+  </si>
+  <si>
+    <t>050-8802248</t>
+  </si>
+  <si>
+    <t>054-3291072</t>
+  </si>
+  <si>
+    <t>054-5745695</t>
+  </si>
+  <si>
+    <t>050-5820593</t>
+  </si>
+  <si>
+    <t>054-3080103</t>
+  </si>
+  <si>
+    <t>054-9902022</t>
+  </si>
+  <si>
+    <t>050-4813400</t>
+  </si>
+  <si>
     <t>050-4270094</t>
   </si>
   <si>
-    <t>050-8800048</t>
-  </si>
-  <si>
-    <t>050-8802248</t>
-  </si>
-  <si>
-    <t>054-3291072</t>
-  </si>
-  <si>
-    <t>054-5745695</t>
-  </si>
-  <si>
-    <t>050-5820593</t>
-  </si>
-  <si>
-    <t>054-3080103</t>
+    <t>052-2512440</t>
+  </si>
+  <si>
+    <t>054-5986439</t>
+  </si>
+  <si>
+    <t>054-4225931</t>
+  </si>
+  <si>
+    <t>050-5525774</t>
+  </si>
+  <si>
+    <t>054-4460223</t>
+  </si>
+  <si>
+    <t>050-6220411</t>
+  </si>
+  <si>
+    <t>052-3614791</t>
   </si>
   <si>
     <t>054-4683685</t>
   </si>
   <si>
-    <t>054-4624616</t>
-  </si>
-  <si>
-    <t>054-7205695</t>
+    <t>050-7715781</t>
+  </si>
+  <si>
+    <t>050-9612465</t>
+  </si>
+  <si>
+    <t>053-2344331</t>
+  </si>
+  <si>
+    <t>052-8513532</t>
+  </si>
+  <si>
+    <t>054-9949571</t>
+  </si>
+  <si>
+    <t>054-7236295</t>
+  </si>
+  <si>
+    <t>054-7864656</t>
+  </si>
+  <si>
+    <t>058-4741993</t>
+  </si>
+  <si>
+    <t>052-6867272</t>
   </si>
   <si>
     <t>058-5657981</t>
   </si>
   <si>
-    <t>052-2512440</t>
-  </si>
-  <si>
-    <t>054-5986439</t>
-  </si>
-  <si>
-    <t>054-4225931</t>
-  </si>
-  <si>
-    <t>050-5525774</t>
-  </si>
-  <si>
-    <t>054-4460223</t>
-  </si>
-  <si>
-    <t>050-6220411</t>
-  </si>
-  <si>
-    <t>052-3614791</t>
-  </si>
-  <si>
-    <t>050-4813400</t>
-  </si>
-  <si>
-    <t>054-7236295</t>
-  </si>
-  <si>
-    <t>054-7864656</t>
-  </si>
-  <si>
-    <t>058-4741993</t>
-  </si>
-  <si>
-    <t>052-6867272</t>
-  </si>
-  <si>
     <t>054-2344862</t>
   </si>
   <si>
     <t>054-6998499</t>
   </si>
   <si>
-    <t>052-5811811</t>
+    <t>054-4683928</t>
   </si>
   <si>
     <t>052-3351212</t>
   </si>
   <si>
-    <t>054-4481312</t>
-  </si>
-  <si>
     <t>054-4468818</t>
   </si>
   <si>
@@ -319,13 +931,169 @@
     <t>054-3250080</t>
   </si>
   <si>
-    <t>054-6697140</t>
-  </si>
-  <si>
-    <t>054-9949571</t>
-  </si>
-  <si>
-    <t>054-4683928</t>
+    <t>054-4394005</t>
+  </si>
+  <si>
+    <t>054-9984206</t>
+  </si>
+  <si>
+    <t>052-8375626</t>
+  </si>
+  <si>
+    <t>050-8724734</t>
+  </si>
+  <si>
+    <t>058-5657982</t>
+  </si>
+  <si>
+    <t>055-9964415</t>
+  </si>
+  <si>
+    <t>052-8088010</t>
+  </si>
+  <si>
+    <t>054-4693774</t>
+  </si>
+  <si>
+    <t>054-4868419</t>
+  </si>
+  <si>
+    <t>054-4994940</t>
+  </si>
+  <si>
+    <t>052-2645468</t>
+  </si>
+  <si>
+    <t>054-5202162</t>
+  </si>
+  <si>
+    <t>050-8273151</t>
+  </si>
+  <si>
+    <t>053-3449571</t>
+  </si>
+  <si>
+    <t>052-5905909</t>
+  </si>
+  <si>
+    <t>054-3344203</t>
+  </si>
+  <si>
+    <t>054-4390016</t>
+  </si>
+  <si>
+    <t>052-2785986</t>
+  </si>
+  <si>
+    <t>050-2505208</t>
+  </si>
+  <si>
+    <t>054-4970657</t>
+  </si>
+  <si>
+    <t>055-6603615</t>
+  </si>
+  <si>
+    <t>054-6544153</t>
+  </si>
+  <si>
+    <t>054-5619567</t>
+  </si>
+  <si>
+    <t>054-4878143</t>
+  </si>
+  <si>
+    <t>050-3027484</t>
+  </si>
+  <si>
+    <t>054-4541638</t>
+  </si>
+  <si>
+    <t>052-2490880</t>
+  </si>
+  <si>
+    <t>052-2499440</t>
+  </si>
+  <si>
+    <t>054-2332571</t>
+  </si>
+  <si>
+    <t>058-4818458</t>
+  </si>
+  <si>
+    <t>054-4576789</t>
+  </si>
+  <si>
+    <t>052-2834724</t>
+  </si>
+  <si>
+    <t>050-8272008</t>
+  </si>
+  <si>
+    <t>054-7567751</t>
+  </si>
+  <si>
+    <t>052-3028003</t>
+  </si>
+  <si>
+    <t>050-7922539</t>
+  </si>
+  <si>
+    <t>052-9246327</t>
+  </si>
+  <si>
+    <t>054-5490126</t>
+  </si>
+  <si>
+    <t>053-2424098</t>
+  </si>
+  <si>
+    <t>050-6410589</t>
+  </si>
+  <si>
+    <t>052-2733699</t>
+  </si>
+  <si>
+    <t>054-2070234</t>
+  </si>
+  <si>
+    <t>054-6363242</t>
+  </si>
+  <si>
+    <t>053-6095221</t>
+  </si>
+  <si>
+    <t>054-4660645</t>
+  </si>
+  <si>
+    <t>054-6597974</t>
+  </si>
+  <si>
+    <t>054-3377311</t>
+  </si>
+  <si>
+    <t>054-3324613</t>
+  </si>
+  <si>
+    <t>050-2229050</t>
+  </si>
+  <si>
+    <t>054-3035520</t>
+  </si>
+  <si>
+    <t>054-5557747</t>
+  </si>
+  <si>
+    <t>054-7156010</t>
+  </si>
+  <si>
+    <t>050-6371876</t>
+  </si>
+  <si>
+    <t>054-4203853</t>
+  </si>
+  <si>
+    <t>054-5615777</t>
   </si>
 </sst>
 </file>
@@ -488,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true"/>
   </sheetViews>
@@ -502,70 +1270,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="O1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1465</v>
+        <v>6887</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="n">
-        <v>2071190</v>
+        <v>111</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="b">
@@ -573,40 +1341,38 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N2"/>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6283</v>
+        <v>3501</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="n">
-        <v>2071517</v>
+        <v>1105870</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="b">
@@ -618,34 +1384,34 @@
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>603</v>
+        <v>3778</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="n">
-        <v>2071005</v>
+        <v>2071156</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="b">
@@ -653,38 +1419,38 @@
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N4"/>
-      <c r="O4" t="s">
-        <v>73</v>
+      <c r="O4" t="n">
+        <v>543339653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7207</v>
+        <v>5705</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2066903</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="b">
@@ -692,40 +1458,38 @@
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>587570512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3279</v>
+        <v>5914</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="n">
-        <v>2071090</v>
+        <v>2071499</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="b">
@@ -733,38 +1497,38 @@
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N6"/>
-      <c r="O6" t="s">
-        <v>75</v>
+      <c r="O6" t="n">
+        <v>548812345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>4885</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="n">
-        <v>2071257</v>
+        <v>2071141</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="b">
@@ -775,35 +1539,35 @@
         <v>25</v>
       </c>
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>76</v>
+      <c r="O7" t="n">
+        <v>526555995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3453</v>
+        <v>2146</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="n">
-        <v>2071040</v>
+        <v>2071441</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="b">
@@ -815,34 +1579,34 @@
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6685</v>
+        <v>4394</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="n">
-        <v>8250465</v>
+        <v>2068639</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="b">
@@ -850,37 +1614,38 @@
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4203</v>
+        <v>4805</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="n">
-        <v>1008072</v>
+        <v>2071053</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="b">
@@ -892,73 +1657,71 @@
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4120</v>
+        <v>22868988</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
+      <c r="C11"/>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="n">
-        <v>2300229</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N11"/>
-      <c r="O11" t="s">
-        <v>79</v>
+      <c r="O11" t="n">
+        <v>544500724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3039</v>
+        <v>3089</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="n">
-        <v>2071036</v>
+        <v>2144836</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="b">
@@ -966,38 +1729,38 @@
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>822</v>
+        <v>6514</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="n">
-        <v>2071070</v>
+        <v>8499899</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="b">
@@ -1008,35 +1771,35 @@
         <v>25</v>
       </c>
       <c r="N13"/>
-      <c r="O13" t="s">
-        <v>81</v>
+      <c r="O13" t="n">
+        <v>544650660</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7152</v>
+        <v>552</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="n">
-        <v>2145090</v>
+        <v>2045093</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="b">
@@ -1044,40 +1807,38 @@
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N14"/>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3084</v>
+        <v>4879</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="n">
-        <v>1321322</v>
+        <v>7052914</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="b">
@@ -1085,40 +1846,38 @@
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2959</v>
+        <v>5675</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="n">
-        <v>7220184</v>
+        <v>8064407</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="b">
@@ -1126,40 +1885,34 @@
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1700</v>
+        <v>7047</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="n">
-        <v>2107120</v>
+        <v>2221185</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="b">
@@ -1167,38 +1920,38 @@
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N17"/>
-      <c r="O17" t="n">
-        <v>547906067</v>
+      <c r="O17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4165</v>
+        <v>5715</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="n">
-        <v>2071109</v>
+        <v>2069556</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="b">
@@ -1206,38 +1959,38 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2599</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.395833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="n">
-        <v>230740</v>
+        <v>2121786</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="b">
@@ -1249,34 +2002,34 @@
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3734</v>
+        <v>6064</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="n">
-        <v>2071186</v>
+        <v>2083332</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="b">
@@ -1284,38 +2037,38 @@
       </c>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2029</v>
+        <v>6279</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="n">
-        <v>2071030</v>
+        <v>2071146</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="b">
@@ -1323,38 +2076,38 @@
       </c>
       <c r="L21"/>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N21"/>
-      <c r="O21" t="s">
-        <v>88</v>
+      <c r="O21" t="n">
+        <v>544741993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1751</v>
+        <v>7188</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="n">
-        <v>8222222</v>
+        <v>8275226</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="b">
@@ -1366,32 +2119,34 @@
       </c>
       <c r="N22"/>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27931617</v>
+        <v>6495</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2141134</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="b">
@@ -1399,38 +2154,38 @@
       </c>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>543348646</v>
+        <v>544907579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>883</v>
+        <v>605</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="n">
-        <v>2083331</v>
+        <v>2071064</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="b">
@@ -1438,38 +2193,38 @@
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5178</v>
+        <v>2503</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="n">
-        <v>2071131</v>
+        <v>111111</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="b">
@@ -1477,38 +2232,38 @@
       </c>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5723</v>
+        <v>1320</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="n">
-        <v>1202015</v>
+        <v>2071438</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="b">
@@ -1520,34 +2275,34 @@
       </c>
       <c r="N26"/>
       <c r="O26" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5179</v>
+        <v>4545</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="n">
-        <v>2071119</v>
+        <v>2071419</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="b">
@@ -1559,34 +2314,34 @@
       </c>
       <c r="N27"/>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2011</v>
+        <v>3336</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="n">
-        <v>2071154</v>
+        <v>9933838</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="b">
@@ -1597,74 +2352,72 @@
         <v>25</v>
       </c>
       <c r="N28"/>
-      <c r="O28" t="n">
-        <v>544710406</v>
+      <c r="O28" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4008</v>
+        <v>61244976</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
+      <c r="C29"/>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="n">
-        <v>2071003</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N29"/>
-      <c r="O29" t="s">
-        <v>94</v>
+      <c r="O29" t="n">
+        <v>542982299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4007</v>
+        <v>6100</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="n">
-        <v>2071058</v>
+        <v>1021231</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="b">
@@ -1675,74 +2428,72 @@
         <v>25</v>
       </c>
       <c r="N30"/>
-      <c r="O30" t="n">
-        <v>542206373</v>
+      <c r="O30" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4006</v>
+        <v>37568649</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
+      <c r="C31"/>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="n">
-        <v>2071046</v>
+        <v>0</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N31"/>
-      <c r="O31" t="s">
-        <v>95</v>
+      <c r="O31" t="n">
+        <v>535305610</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3613</v>
+        <v>5677</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="n">
-        <v>9471203</v>
+        <v>2071498</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="b">
@@ -1750,40 +2501,38 @@
       </c>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s">
-        <v>69</v>
-      </c>
-      <c r="O32" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="n">
+        <v>525636338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1755</v>
+        <v>2988</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="n">
-        <v>2071017</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="b">
@@ -1794,35 +2543,35 @@
         <v>25</v>
       </c>
       <c r="N33"/>
-      <c r="O33" t="s">
-        <v>97</v>
+      <c r="O33" t="n">
+        <v>547554851</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4828</v>
+        <v>5623</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="n">
-        <v>2800900</v>
+        <v>2071383</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="b">
@@ -1830,38 +2579,38 @@
       </c>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>273</v>
+        <v>3209</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="n">
-        <v>2071039</v>
+        <v>2071130</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="b">
@@ -1873,34 +2622,34 @@
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>274</v>
+        <v>3208</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="n">
-        <v>2071083</v>
+        <v>2071129</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="b">
@@ -1912,34 +2661,34 @@
       </c>
       <c r="N36"/>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7138</v>
+        <v>3054</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.375</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="n">
-        <v>7150479</v>
+        <v>8007163</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="b">
@@ -1947,141 +2696,143 @@
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>10</v>
-      </c>
-      <c r="N37" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N37"/>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>214954968</v>
+        <v>4002</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2071123</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38"/>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38"/>
-      <c r="O38" t="n">
-        <v>523863228</v>
+      <c r="O38" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6885</v>
+        <v>3055</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2071692</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N39"/>
-      <c r="O39" t="s">
-        <v>102</v>
+      <c r="O39" t="n">
+        <v>528757462</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29614112</v>
+        <v>4501</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" t="s">
+        <v>213</v>
+      </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2071127</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N40"/>
       <c r="O40" t="n">
-        <v>523863228</v>
+        <v>527588224</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>57967960</v>
+        <v>66255308</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="n">
@@ -2091,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="b">
@@ -2103,34 +2854,34 @@
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>584731700</v>
+        <v>523744704</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4377</v>
+        <v>4841</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="n">
-        <v>2068536</v>
+        <v>2071464</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="b">
@@ -2138,38 +2889,38 @@
       </c>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5862</v>
+        <v>4842</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="n">
-        <v>2071601</v>
+        <v>2071056</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="b">
@@ -2177,38 +2928,38 @@
       </c>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N43"/>
-      <c r="O43" t="s">
-        <v>104</v>
+      <c r="O43" t="n">
+        <v>506221243</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4891</v>
+        <v>4210</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>0.375</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="n">
-        <v>2071179</v>
+        <v>2071332</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="b">
@@ -2219,8 +2970,6182 @@
         <v>25</v>
       </c>
       <c r="N44"/>
-      <c r="O44" t="s">
+      <c r="O44" t="n">
+        <v>528744002</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="n">
+        <v>2071025</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>228</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>25</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="n">
+        <v>2071644</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="n">
+        <v>25</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n">
+        <v>35</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6905</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="n">
+        <v>2071404</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="n">
+        <v>25</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="n">
+        <v>2071546</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49" t="n">
+        <v>25</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49" t="n">
+        <v>524877454</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="n">
+        <v>2071057</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50" t="n">
+        <v>25</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37276599</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>229</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51" t="n">
+        <v>40</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51" t="n">
+        <v>544460601</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="n">
+        <v>2071036</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4828</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="n">
+        <v>2800900</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3613</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="n">
+        <v>9471203</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>229</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="n">
+        <v>10</v>
+      </c>
+      <c r="N54" t="s">
+        <v>236</v>
+      </c>
+      <c r="O54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4214</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="n">
+        <v>7200994</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6283</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="n">
+        <v>2071517</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56" t="n">
+        <v>25</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>603</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="n">
+        <v>2071005</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58" t="n">
+        <v>10</v>
+      </c>
+      <c r="N58" t="s">
+        <v>236</v>
+      </c>
+      <c r="O58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="n">
+        <v>2071090</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="n">
+        <v>2071257</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>229</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60" t="n">
+        <v>25</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3453</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="n">
+        <v>2071040</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="n">
+        <v>25</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6685</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="n">
+        <v>8017388</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>229</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62" t="n">
+        <v>10</v>
+      </c>
+      <c r="N62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3964</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="n">
+        <v>2113350</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="n">
+        <v>8222222</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="n">
+        <v>25</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29614112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>229</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="n">
+        <v>50</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65" t="n">
+        <v>523863228</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1465</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="n">
+        <v>2071190</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66" t="n">
+        <v>10</v>
+      </c>
+      <c r="N66" t="s">
+        <v>236</v>
+      </c>
+      <c r="O66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="n">
+        <v>2145090</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>228</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67" t="n">
+        <v>10</v>
+      </c>
+      <c r="N67" t="s">
+        <v>236</v>
+      </c>
+      <c r="O67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3084</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="n">
+        <v>1321322</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>229</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="n">
+        <v>10</v>
+      </c>
+      <c r="N68" t="s">
+        <v>236</v>
+      </c>
+      <c r="O68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2959</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="n">
+        <v>7220184</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>229</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="n">
+        <v>10</v>
+      </c>
+      <c r="N69" t="s">
+        <v>236</v>
+      </c>
+      <c r="O69" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3594</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="n">
+        <v>2071683</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>229</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v>25</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="n">
+        <v>2107120</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>547906067</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="n">
+        <v>2071109</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>228</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72" t="n">
+        <v>25</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2599</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="n">
+        <v>230740</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>229</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="n">
+        <v>25</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3734</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="n">
+        <v>2071186</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>229</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74"/>
+      <c r="M74" t="n">
+        <v>25</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="n">
+        <v>2071030</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>229</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="n">
+        <v>1008072</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>229</v>
+      </c>
+      <c r="J76"/>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4007</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="n">
+        <v>2071058</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n">
+        <v>25</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77" t="n">
+        <v>542206373</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5625</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="n">
+        <v>2071658</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n">
+        <v>25</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3544</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="n">
+        <v>2071634</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>229</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79" t="n">
+        <v>25</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="n">
+        <v>2071031</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>229</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80" t="n">
+        <v>25</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5066</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="n">
+        <v>2071219</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>228</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81" t="n">
+        <v>25</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81" t="n">
+        <v>522827791</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4017</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="n">
+        <v>2071220</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>229</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82" t="n">
+        <v>25</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5862</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="n">
+        <v>2071601</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>228</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="n">
+        <v>25</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>883</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="n">
+        <v>2083331</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>229</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84"/>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5178</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="n">
+        <v>2071131</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>229</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>25</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5723</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="n">
+        <v>1202015</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>229</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86"/>
+      <c r="M86" t="n">
+        <v>25</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="n">
+        <v>2071119</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>228</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>25</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>822</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="n">
+        <v>2071070</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>229</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88" t="n">
+        <v>25</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4008</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="n">
+        <v>2071003</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>228</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89" t="n">
+        <v>25</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57967960</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>229</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90"/>
+      <c r="M90" t="n">
+        <v>40</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90" t="n">
+        <v>584731700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4006</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="n">
+        <v>2071046</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>229</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91" t="n">
+        <v>25</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4891</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="n">
+        <v>2071179</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>228</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92" t="n">
+        <v>25</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="n">
+        <v>2071017</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>229</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n">
+        <v>25</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27931617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>229</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94" t="n">
+        <v>40</v>
+      </c>
+      <c r="N94"/>
+      <c r="O94" t="n">
+        <v>543348646</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="n">
+        <v>2071050</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>229</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95" t="n">
+        <v>522201914</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>273</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="n">
+        <v>2071039</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>229</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>25</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>274</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="n">
+        <v>2071083</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>228</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97" t="n">
+        <v>25</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="n">
+        <v>7150479</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>228</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98" t="n">
+        <v>10</v>
+      </c>
+      <c r="N98" t="s">
+        <v>236</v>
+      </c>
+      <c r="O98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>214954968</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>229</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99" t="n">
+        <v>50</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99" t="n">
+        <v>523863228</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6885</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>228</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100" t="n">
+        <v>35</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="n">
+        <v>2071032</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>229</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101" t="n">
+        <v>25</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="n">
+        <v>2071154</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102" t="n">
+        <v>25</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102" t="n">
+        <v>544710406</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>228</v>
+      </c>
+      <c r="J103" t="s">
+        <v>231</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103" t="n">
+        <v>25</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" t="n">
+        <v>523650708</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>337131189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>229</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104" t="n">
+        <v>50</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104" t="n">
+        <v>542982299</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5232</v>
+      </c>
+      <c r="B105" t="s">
         <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="n">
+        <v>7204750</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>229</v>
+      </c>
+      <c r="J105"/>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5565</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="n">
+        <v>1113709</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>229</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106" t="n">
+        <v>25</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106" t="n">
+        <v>525202022</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>312897135</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>229</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>40</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107" t="n">
+        <v>524775832</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3139</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="n">
+        <v>2071285</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>229</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="n">
+        <v>2071678</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>229</v>
+      </c>
+      <c r="J109"/>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109" t="n">
+        <v>25</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>7137</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="n">
+        <v>2069557</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>229</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110" t="n">
+        <v>10</v>
+      </c>
+      <c r="N110" t="s">
+        <v>236</v>
+      </c>
+      <c r="O110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>333485068</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>229</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>50</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111" t="n">
+        <v>522169318</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4843</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="n">
+        <v>2071085</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>229</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112" t="n">
+        <v>25</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="n">
+        <v>2071641</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>229</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113" t="n">
+        <v>25</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>40911513</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>229</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114" t="n">
+        <v>40</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114" t="n">
+        <v>542088861</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6808</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="n">
+        <v>2071607</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>229</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115" t="n">
+        <v>25</v>
+      </c>
+      <c r="N115"/>
+      <c r="O115" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6888</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="n">
+        <v>2071695</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>229</v>
+      </c>
+      <c r="J116"/>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>25</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3549</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="n">
+        <v>2071128</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>229</v>
+      </c>
+      <c r="J117"/>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117" t="n">
+        <v>25</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="n">
+        <v>2071028</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>229</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118" t="n">
+        <v>25</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="n">
+        <v>2221200</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>229</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119"/>
+      <c r="M119" t="n">
+        <v>25</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>210014197</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>229</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120"/>
+      <c r="M120" t="n">
+        <v>40</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120" t="n">
+        <v>584226601</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1759</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="n">
+        <v>2071088</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>229</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121" t="n">
+        <v>25</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6946</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="n">
+        <v>2071488</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>229</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122" t="n">
+        <v>25</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122" t="n">
+        <v>548128238</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6949</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="n">
+        <v>2145084</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>229</v>
+      </c>
+      <c r="J123"/>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123" t="n">
+        <v>25</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>215348665</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>229</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124"/>
+      <c r="M124" t="n">
+        <v>40</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124" t="n">
+        <v>585321299</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6227</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="n">
+        <v>2071666</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>229</v>
+      </c>
+      <c r="J125"/>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>25</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125" t="n">
+        <v>523028003</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5974</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" t="s">
+        <v>220</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="n">
+        <v>2071353</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>228</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126" t="n">
+        <v>25</v>
+      </c>
+      <c r="N126"/>
+      <c r="O126" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6326</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="n">
+        <v>2083337</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>229</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127"/>
+      <c r="M127" t="n">
+        <v>25</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>545255546</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6967</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="n">
+        <v>2071171</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>228</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128" t="n">
+        <v>25</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128" t="n">
+        <v>508710251</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7211</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="n">
+        <v>1005331</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>229</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129" t="n">
+        <v>25</v>
+      </c>
+      <c r="N129"/>
+      <c r="O129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4260</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D130" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="n">
+        <v>2071198</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>228</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v>25</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130" t="n">
+        <v>547372680</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>207108176</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>229</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131" t="n">
+        <v>40</v>
+      </c>
+      <c r="N131"/>
+      <c r="O131" t="n">
+        <v>526671535</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>29680378</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132" t="n">
+        <v>40</v>
+      </c>
+      <c r="N132"/>
+      <c r="O132" t="n">
+        <v>507472514</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>5450</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" t="s">
+        <v>221</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" t="n">
+        <v>2071659</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>229</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>25</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133" t="n">
+        <v>504545954</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4979</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>206</v>
+      </c>
+      <c r="D134" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" t="n">
+        <v>7796959</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>229</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134"/>
+      <c r="M134" t="n">
+        <v>40</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5448</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="n">
+        <v>2071624</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>229</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135"/>
+      <c r="M135" t="n">
+        <v>25</v>
+      </c>
+      <c r="N135"/>
+      <c r="O135" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2801</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" t="s">
+        <v>218</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" t="n">
+        <v>7212111</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>229</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136"/>
+      <c r="M136" t="n">
+        <v>25</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6807</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>207</v>
+      </c>
+      <c r="D137" t="s">
+        <v>219</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" t="n">
+        <v>2071662</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>229</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137" t="n">
+        <v>25</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6765</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" t="s">
+        <v>219</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" t="n">
+        <v>2071700</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>229</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138"/>
+      <c r="M138" t="n">
+        <v>25</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>5231</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>209</v>
+      </c>
+      <c r="D139" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" t="n">
+        <v>8004535</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>228</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139" t="n">
+        <v>535315434</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4850</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" t="s">
+        <v>219</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" t="n">
+        <v>2071041</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>229</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140" t="n">
+        <v>25</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5426</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" t="n">
+        <v>2071184</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>228</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141" t="n">
+        <v>25</v>
+      </c>
+      <c r="N141"/>
+      <c r="O141" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6966</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" t="n">
+        <v>8180493</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>229</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142"/>
+      <c r="M142" t="n">
+        <v>25</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2424</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" t="s">
+        <v>219</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" t="n">
+        <v>2071157</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>229</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143"/>
+      <c r="M143" t="n">
+        <v>25</v>
+      </c>
+      <c r="N143"/>
+      <c r="O143" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2730</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" t="n">
+        <v>9200287</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>229</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144"/>
+      <c r="M144" t="n">
+        <v>25</v>
+      </c>
+      <c r="N144"/>
+      <c r="O144" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4166</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" t="s">
+        <v>219</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" t="n">
+        <v>2071107</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>229</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145" t="n">
+        <v>25</v>
+      </c>
+      <c r="N145"/>
+      <c r="O145" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5944</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" t="n">
+        <v>8110068</v>
+      </c>
+      <c r="H146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>229</v>
+      </c>
+      <c r="J146"/>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146"/>
+      <c r="M146" t="n">
+        <v>25</v>
+      </c>
+      <c r="N146"/>
+      <c r="O146" t="n">
+        <v>542088261</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>318228301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>229</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147"/>
+      <c r="M147" t="n">
+        <v>50</v>
+      </c>
+      <c r="N147"/>
+      <c r="O147" t="n">
+        <v>527555272</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>7067</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>206</v>
+      </c>
+      <c r="D148" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" t="n">
+        <v>2071638</v>
+      </c>
+      <c r="H148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>229</v>
+      </c>
+      <c r="J148"/>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148"/>
+      <c r="M148" t="n">
+        <v>25</v>
+      </c>
+      <c r="N148"/>
+      <c r="O148" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4409</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" t="n">
+        <v>2071180</v>
+      </c>
+      <c r="H149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>229</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4410</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" t="n">
+        <v>2071182</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>228</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>3563</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>206</v>
+      </c>
+      <c r="D151" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" t="n">
+        <v>2076482</v>
+      </c>
+      <c r="H151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>229</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151"/>
+      <c r="M151" t="n">
+        <v>25</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5052</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>208</v>
+      </c>
+      <c r="D152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" t="n">
+        <v>2071524</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>228</v>
+      </c>
+      <c r="J152"/>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152"/>
+      <c r="M152" t="n">
+        <v>25</v>
+      </c>
+      <c r="N152"/>
+      <c r="O152" t="n">
+        <v>546988029</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>7117</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" t="n">
+        <v>7500750</v>
+      </c>
+      <c r="H153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>229</v>
+      </c>
+      <c r="J153"/>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153"/>
+      <c r="M153" t="n">
+        <v>25</v>
+      </c>
+      <c r="N153"/>
+      <c r="O153" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2797</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" t="s">
+        <v>219</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" t="n">
+        <v>1033316</v>
+      </c>
+      <c r="H154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>229</v>
+      </c>
+      <c r="J154"/>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154"/>
+      <c r="M154" t="n">
+        <v>25</v>
+      </c>
+      <c r="N154"/>
+      <c r="O154" t="n">
+        <v>524238718</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>522</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>219</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" t="n">
+        <v>2071381</v>
+      </c>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>229</v>
+      </c>
+      <c r="J155"/>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155"/>
+      <c r="M155" t="n">
+        <v>25</v>
+      </c>
+      <c r="N155"/>
+      <c r="O155" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>6039</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>208</v>
+      </c>
+      <c r="D156" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" t="n">
+        <v>2071363</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>228</v>
+      </c>
+      <c r="J156"/>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156"/>
+      <c r="M156" t="n">
+        <v>25</v>
+      </c>
+      <c r="N156"/>
+      <c r="O156" t="n">
+        <v>543926544</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>6813</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" t="n">
+        <v>2071603</v>
+      </c>
+      <c r="H157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>229</v>
+      </c>
+      <c r="J157"/>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157"/>
+      <c r="M157" t="n">
+        <v>25</v>
+      </c>
+      <c r="N157"/>
+      <c r="O157" t="n">
+        <v>523366292</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5885</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>214</v>
+      </c>
+      <c r="D158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" t="n">
+        <v>7130402</v>
+      </c>
+      <c r="H158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>229</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158"/>
+      <c r="M158" t="n">
+        <v>10</v>
+      </c>
+      <c r="N158" t="s">
+        <v>236</v>
+      </c>
+      <c r="O158" t="n">
+        <v>546774726</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5937</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" t="n">
+        <v>8366660</v>
+      </c>
+      <c r="H159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>229</v>
+      </c>
+      <c r="J159"/>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159"/>
+      <c r="M159" t="n">
+        <v>25</v>
+      </c>
+      <c r="N159"/>
+      <c r="O159" t="n">
+        <v>585859511</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5934</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" t="n">
+        <v>2071470</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>228</v>
+      </c>
+      <c r="J160"/>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160"/>
+      <c r="M160" t="n">
+        <v>25</v>
+      </c>
+      <c r="N160"/>
+      <c r="O160" t="n">
+        <v>524281190</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3191</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" t="s">
+        <v>220</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" t="n">
+        <v>8461951</v>
+      </c>
+      <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>229</v>
+      </c>
+      <c r="J161"/>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161"/>
+      <c r="M161" t="n">
+        <v>25</v>
+      </c>
+      <c r="N161"/>
+      <c r="O161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2892</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>211</v>
+      </c>
+      <c r="D162" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" t="n">
+        <v>2071026</v>
+      </c>
+      <c r="H162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>229</v>
+      </c>
+      <c r="J162"/>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162"/>
+      <c r="M162" t="n">
+        <v>25</v>
+      </c>
+      <c r="N162"/>
+      <c r="O162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4131</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>206</v>
+      </c>
+      <c r="D163" t="s">
+        <v>220</v>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>229</v>
+      </c>
+      <c r="J163"/>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163"/>
+      <c r="M163" t="n">
+        <v>40</v>
+      </c>
+      <c r="N163"/>
+      <c r="O163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5791</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" t="s">
+        <v>220</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" t="n">
+        <v>2071319</v>
+      </c>
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>229</v>
+      </c>
+      <c r="J164"/>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164"/>
+      <c r="M164" t="n">
+        <v>25</v>
+      </c>
+      <c r="N164"/>
+      <c r="O164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4372</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>207</v>
+      </c>
+      <c r="D165" t="s">
+        <v>219</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" t="n">
+        <v>2083341</v>
+      </c>
+      <c r="H165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>229</v>
+      </c>
+      <c r="J165"/>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165"/>
+      <c r="M165" t="n">
+        <v>25</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>208</v>
+      </c>
+      <c r="D166" t="s">
+        <v>219</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" t="n">
+        <v>2071051</v>
+      </c>
+      <c r="H166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>229</v>
+      </c>
+      <c r="J166"/>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166"/>
+      <c r="M166" t="n">
+        <v>25</v>
+      </c>
+      <c r="N166"/>
+      <c r="O166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>7046</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>206</v>
+      </c>
+      <c r="D167" t="s">
+        <v>218</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>229</v>
+      </c>
+      <c r="J167"/>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167"/>
+      <c r="M167" t="n">
+        <v>25</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5199</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" t="n">
+        <v>2071296</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>228</v>
+      </c>
+      <c r="J168"/>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168"/>
+      <c r="M168" t="n">
+        <v>25</v>
+      </c>
+      <c r="N168"/>
+      <c r="O168" t="n">
+        <v>506224551</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6256</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169" t="s">
+        <v>219</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" t="n">
+        <v>2071326</v>
+      </c>
+      <c r="H169" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>229</v>
+      </c>
+      <c r="J169"/>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169"/>
+      <c r="M169" t="n">
+        <v>25</v>
+      </c>
+      <c r="N169"/>
+      <c r="O169" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6369</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>208</v>
+      </c>
+      <c r="D170" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" t="n">
+        <v>2121003</v>
+      </c>
+      <c r="H170" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>229</v>
+      </c>
+      <c r="J170"/>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170"/>
+      <c r="M170" t="n">
+        <v>25</v>
+      </c>
+      <c r="N170"/>
+      <c r="O170" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>311134746</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171" t="s">
+        <v>219</v>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="b">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>229</v>
+      </c>
+      <c r="J171"/>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171"/>
+      <c r="M171" t="n">
+        <v>40</v>
+      </c>
+      <c r="N171"/>
+      <c r="O171" t="n">
+        <v>526557052</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4499</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" t="s">
+        <v>219</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="n">
+        <v>2071354</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>228</v>
+      </c>
+      <c r="J172"/>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172"/>
+      <c r="M172" t="n">
+        <v>25</v>
+      </c>
+      <c r="N172"/>
+      <c r="O172" t="n">
+        <v>523623989</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>208</v>
+      </c>
+      <c r="D173" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="n">
+        <v>2071105</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>228</v>
+      </c>
+      <c r="J173"/>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173"/>
+      <c r="M173" t="n">
+        <v>25</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173" t="n">
+        <v>547848849</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>208</v>
+      </c>
+      <c r="D174" t="s">
+        <v>219</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="n">
+        <v>2083347</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>229</v>
+      </c>
+      <c r="J174"/>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174"/>
+      <c r="M174" t="n">
+        <v>25</v>
+      </c>
+      <c r="N174"/>
+      <c r="O174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6380</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>206</v>
+      </c>
+      <c r="D175" t="s">
+        <v>220</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="n">
+        <v>2420707</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>228</v>
+      </c>
+      <c r="J175"/>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175"/>
+      <c r="M175" t="n">
+        <v>25</v>
+      </c>
+      <c r="N175"/>
+      <c r="O175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3446</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>215</v>
+      </c>
+      <c r="D176" t="s">
+        <v>220</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="n">
+        <v>2083336</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>229</v>
+      </c>
+      <c r="J176"/>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176"/>
+      <c r="M176" t="n">
+        <v>25</v>
+      </c>
+      <c r="N176"/>
+      <c r="O176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4036</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="n">
+        <v>2071653</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>229</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177"/>
+      <c r="M177" t="n">
+        <v>25</v>
+      </c>
+      <c r="N177"/>
+      <c r="O177" t="n">
+        <v>506277462</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>52254141</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178"/>
+      <c r="D178" t="s">
+        <v>220</v>
+      </c>
+      <c r="E178" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="b">
+        <v>1</v>
+      </c>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+      <c r="J178"/>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178"/>
+      <c r="M178" t="n">
+        <v>40</v>
+      </c>
+      <c r="N178"/>
+      <c r="O178" t="n">
+        <v>505372136</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6496</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>208</v>
+      </c>
+      <c r="D179" t="s">
+        <v>219</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" t="n">
+        <v>7555551</v>
+      </c>
+      <c r="H179" t="b">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
+        <v>229</v>
+      </c>
+      <c r="J179"/>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179"/>
+      <c r="M179" t="n">
+        <v>25</v>
+      </c>
+      <c r="N179"/>
+      <c r="O179" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>210</v>
+      </c>
+      <c r="D180" t="s">
+        <v>220</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" t="n">
+        <v>2083344</v>
+      </c>
+      <c r="H180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
+        <v>229</v>
+      </c>
+      <c r="J180"/>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180"/>
+      <c r="M180" t="n">
+        <v>25</v>
+      </c>
+      <c r="N180"/>
+      <c r="O180" t="n">
+        <v>537257569</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4920</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" t="s">
+        <v>220</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" t="n">
+        <v>2071215</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>228</v>
+      </c>
+      <c r="J181"/>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181"/>
+      <c r="M181" t="n">
+        <v>25</v>
+      </c>
+      <c r="N181"/>
+      <c r="O181" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>5673</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" t="s">
+        <v>220</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" t="n">
+        <v>2071500</v>
+      </c>
+      <c r="H182" t="b">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>229</v>
+      </c>
+      <c r="J182"/>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182"/>
+      <c r="M182" t="n">
+        <v>25</v>
+      </c>
+      <c r="N182"/>
+      <c r="O182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>673</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>216</v>
+      </c>
+      <c r="D183" t="s">
+        <v>218</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" t="n">
+        <v>4624964</v>
+      </c>
+      <c r="H183" t="b">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>229</v>
+      </c>
+      <c r="J183"/>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183"/>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183"/>
+      <c r="O183" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6898</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>208</v>
+      </c>
+      <c r="D184" t="s">
+        <v>221</v>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>229</v>
+      </c>
+      <c r="J184"/>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184"/>
+      <c r="M184" t="n">
+        <v>25</v>
+      </c>
+      <c r="N184"/>
+      <c r="O184" t="n">
+        <v>523771117</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>39133426</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185"/>
+      <c r="D185" t="s">
+        <v>220</v>
+      </c>
+      <c r="E185" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
+        <v>229</v>
+      </c>
+      <c r="J185"/>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185"/>
+      <c r="M185" t="n">
+        <v>50</v>
+      </c>
+      <c r="N185"/>
+      <c r="O185" t="n">
+        <v>525275552</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3853</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" t="s">
+        <v>221</v>
+      </c>
+      <c r="E186" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" t="n">
+        <v>2071479</v>
+      </c>
+      <c r="H186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>229</v>
+      </c>
+      <c r="J186"/>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186"/>
+      <c r="M186" t="n">
+        <v>25</v>
+      </c>
+      <c r="N186"/>
+      <c r="O186" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>514</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>209</v>
+      </c>
+      <c r="D187" t="s">
+        <v>221</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" t="n">
+        <v>2071250</v>
+      </c>
+      <c r="H187" t="b">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>229</v>
+      </c>
+      <c r="J187"/>
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187"/>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187"/>
+      <c r="O187" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>228</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
+        <v>206</v>
+      </c>
+      <c r="D188" t="s">
+        <v>221</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" t="n">
+        <v>2071001</v>
+      </c>
+      <c r="H188" t="b">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>229</v>
+      </c>
+      <c r="J188"/>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188"/>
+      <c r="M188" t="n">
+        <v>25</v>
+      </c>
+      <c r="N188"/>
+      <c r="O188" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6736</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>205</v>
+      </c>
+      <c r="D189" t="s">
+        <v>218</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="n">
+        <v>2071608</v>
+      </c>
+      <c r="H189" t="b">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
+        <v>229</v>
+      </c>
+      <c r="J189"/>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189"/>
+      <c r="M189" t="n">
+        <v>25</v>
+      </c>
+      <c r="N189"/>
+      <c r="O189" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>6972</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190" t="s">
+        <v>218</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>229</v>
+      </c>
+      <c r="J190"/>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190"/>
+      <c r="M190" t="n">
+        <v>35</v>
+      </c>
+      <c r="N190"/>
+      <c r="O190" t="n">
+        <v>524315832</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>3312</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>206</v>
+      </c>
+      <c r="D191" t="s">
+        <v>220</v>
+      </c>
+      <c r="E191" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="n">
+        <v>2071389</v>
+      </c>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>228</v>
+      </c>
+      <c r="J191"/>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191"/>
+      <c r="M191" t="n">
+        <v>25</v>
+      </c>
+      <c r="N191"/>
+      <c r="O191" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5549</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" t="s">
+        <v>206</v>
+      </c>
+      <c r="D192" t="s">
+        <v>221</v>
+      </c>
+      <c r="E192" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" t="n">
+        <v>2071067</v>
+      </c>
+      <c r="H192" t="b">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>229</v>
+      </c>
+      <c r="J192"/>
+      <c r="K192" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192"/>
+      <c r="M192" t="n">
+        <v>25</v>
+      </c>
+      <c r="N192"/>
+      <c r="O192" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5224</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" t="s">
+        <v>208</v>
+      </c>
+      <c r="D193" t="s">
+        <v>220</v>
+      </c>
+      <c r="E193" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" t="n">
+        <v>2085133</v>
+      </c>
+      <c r="H193" t="b">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>229</v>
+      </c>
+      <c r="J193"/>
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193"/>
+      <c r="M193" t="n">
+        <v>25</v>
+      </c>
+      <c r="N193"/>
+      <c r="O193" t="n">
+        <v>545508763</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4646</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>208</v>
+      </c>
+      <c r="D194" t="s">
+        <v>221</v>
+      </c>
+      <c r="E194" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" t="n">
+        <v>2083335</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>228</v>
+      </c>
+      <c r="J194"/>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194"/>
+      <c r="M194" t="n">
+        <v>25</v>
+      </c>
+      <c r="N194"/>
+      <c r="O194" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2701</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" t="s">
+        <v>210</v>
+      </c>
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" t="n">
+        <v>2071181</v>
+      </c>
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>229</v>
+      </c>
+      <c r="J195"/>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195"/>
+      <c r="M195" t="n">
+        <v>25</v>
+      </c>
+      <c r="N195"/>
+      <c r="O195" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6313</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196" t="s">
+        <v>218</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" t="n">
+        <v>2123220</v>
+      </c>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>228</v>
+      </c>
+      <c r="J196"/>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196"/>
+      <c r="M196" t="n">
+        <v>25</v>
+      </c>
+      <c r="N196"/>
+      <c r="O196" t="n">
+        <v>544808133</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>5975</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197" t="s">
+        <v>218</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" t="n">
+        <v>2123219</v>
+      </c>
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>228</v>
+      </c>
+      <c r="J197"/>
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197"/>
+      <c r="M197" t="n">
+        <v>25</v>
+      </c>
+      <c r="N197"/>
+      <c r="O197" t="n">
+        <v>544621669</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5349</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>206</v>
+      </c>
+      <c r="D198" t="s">
+        <v>221</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" t="n">
+        <v>2221188</v>
+      </c>
+      <c r="H198" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>229</v>
+      </c>
+      <c r="J198"/>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198"/>
+      <c r="M198" t="n">
+        <v>25</v>
+      </c>
+      <c r="N198"/>
+      <c r="O198" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>7009</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="s">
+        <v>209</v>
+      </c>
+      <c r="D199" t="s">
+        <v>218</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>228</v>
+      </c>
+      <c r="J199"/>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199"/>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200" t="s">
+        <v>206</v>
+      </c>
+      <c r="D200" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" t="n">
+        <v>2088705</v>
+      </c>
+      <c r="H200" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
+        <v>229</v>
+      </c>
+      <c r="J200"/>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200"/>
+      <c r="M200" t="n">
+        <v>25</v>
+      </c>
+      <c r="N200"/>
+      <c r="O200" t="n">
+        <v>533383216</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="D201" t="s">
+        <v>221</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" t="n">
+        <v>2071054</v>
+      </c>
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>228</v>
+      </c>
+      <c r="J201"/>
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201"/>
+      <c r="M201" t="n">
+        <v>25</v>
+      </c>
+      <c r="N201"/>
+      <c r="O201" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>5593</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" t="s">
+        <v>221</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" t="n">
+        <v>2071304</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="s">
+        <v>228</v>
+      </c>
+      <c r="J202"/>
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202"/>
+      <c r="M202" t="n">
+        <v>25</v>
+      </c>
+      <c r="N202"/>
+      <c r="O202" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>213147911</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203" t="s">
+        <v>220</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="s">
+        <v>228</v>
+      </c>
+      <c r="J203"/>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203"/>
+      <c r="M203" t="n">
+        <v>50</v>
+      </c>
+      <c r="N203" t="s">
+        <v>237</v>
+      </c>
+      <c r="O203" t="n">
+        <v>533360103</v>
       </c>
     </row>
   </sheetData>
